--- a/rcads/data/xls/90_Languages.xlsx
+++ b/rcads/data/xls/90_Languages.xlsx
@@ -7,8 +7,11 @@
     <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" r:id="rId1" name="90_Languages"/>
+    <sheet sheetId="1" r:id="rId1" name="_90_Languages"/>
   </sheets>
+  <definedNames>
+    <definedName name="_90_Languages">'_90_Languages'!$A$1:$H$38</definedName>
+  </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
@@ -23,32 +26,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000" tint="0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -56,36 +33,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,80 +43,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyFill="1" applyProtection="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="left"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="0" vertical="center" horizontal="center"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="right"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyFill="1" applyProtection="1" applyBorder="1" applyAlignment="1" applyFont="1" xfId="0">
-      <alignment wrapText="1" vertical="center" horizontal="general"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,801 +343,1073 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col customWidth="true" min="1" max="1" width="14.0625"/>
-    <col customWidth="true" min="2" max="2" width="13.03515625"/>
-    <col customWidth="true" min="3" max="3" width="14.0625"/>
-    <col customWidth="true" min="4" max="4" width="14.0625"/>
-    <col customWidth="true" min="5" max="5" width="14.0625"/>
-    <col customWidth="true" min="6" max="6" width="14.0625"/>
-  </cols>
   <sheetData>
     <row outlineLevel="0" r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="0" t="inlineStr">
         <is>
           <t>LangaugeID</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="0" t="inlineStr">
         <is>
           <t>Language</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="0" t="inlineStr">
         <is>
           <t>ISO639-1</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="0" t="inlineStr">
         <is>
           <t>ISO639-2</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="0" t="inlineStr">
         <is>
           <t>RFC-4646 Script Tag</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="0" t="inlineStr">
         <is>
           <t>ISO 3166 Country Code</t>
         </is>
       </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>LanguageinLanguage</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>LanguageinLanguage (Latin letters)</t>
+        </is>
+      </c>
     </row>
     <row outlineLevel="0" r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="B2" s="0" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="C2" s="5" t="inlineStr">
+      <c r="C2" s="0" t="inlineStr">
         <is>
           <t>EN</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
+      <c r="D2" s="0" t="inlineStr">
         <is>
           <t>ENG</t>
         </is>
       </c>
-      <c r="E2" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>English</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>Arabic</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="D3" s="5" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>ARA</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>	اَلْعَرَبِيَّةُ</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>al-ʿarabiyyah</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>Chinese (Simplified)</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>ZH</t>
         </is>
       </c>
-      <c r="D4" s="5" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
         <is>
           <t>HANS</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>Danish</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>DA</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>DAN</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>DK</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
+          <t>Dansk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>Dutch</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>NL</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>DUT</t>
         </is>
       </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
+          <t>Nederlands</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="7">
-      <c r="A7" s="4">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>Estonian</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>ET</t>
         </is>
       </c>
-      <c r="D7" s="5" t="inlineStr">
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>EST</t>
         </is>
       </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Eesti keel</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>Finnish</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
+      <c r="C8" s="0" t="inlineStr">
         <is>
           <t>FI</t>
         </is>
       </c>
-      <c r="D8" s="5" t="inlineStr">
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>FIN</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Suomi</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B9" s="0" t="inlineStr">
         <is>
           <t>French</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="D9" s="5" t="inlineStr">
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>FRE</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Français</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B10" s="0" t="inlineStr">
         <is>
           <t>German</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
+      <c r="C10" s="0" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>GER</t>
         </is>
       </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
         <is>
           <t>Greek</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
+      <c r="C11" s="0" t="inlineStr">
         <is>
           <t>EL</t>
         </is>
       </c>
-      <c r="D11" s="5" t="inlineStr">
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>Νέα Ελληνικά</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Néa Ellêniká</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="0">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>Hungarian</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
         <is>
           <t>HU</t>
         </is>
       </c>
-      <c r="D12" s="5" t="inlineStr">
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>HUN</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Magyar nyelv</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="0">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B13" s="0" t="inlineStr">
         <is>
           <t>Icelandic</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
+      <c r="C13" s="0" t="inlineStr">
         <is>
           <t>IS</t>
         </is>
       </c>
-      <c r="D13" s="5" t="inlineStr">
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>ICE</t>
         </is>
       </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>Íslenska</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="14">
-      <c r="A14" s="4">
+      <c r="A14" s="0">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B14" s="0" t="inlineStr">
         <is>
           <t>Japanese</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr">
+      <c r="C14" s="0" t="inlineStr">
         <is>
           <t>JA</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
+      <c r="D14" s="0" t="inlineStr">
         <is>
           <t>JPN</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>日本語</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Nihongo</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="0">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B15" s="0" t="inlineStr">
         <is>
           <t>Korean</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr">
+      <c r="C15" s="0" t="inlineStr">
         <is>
           <t>KO</t>
         </is>
       </c>
-      <c r="D15" s="5" t="inlineStr">
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>KOR</t>
         </is>
       </c>
-      <c r="E15" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
     </row>
     <row outlineLevel="0" r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="0">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>Lithuanian</t>
         </is>
       </c>
-      <c r="C16" s="5" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>LT</t>
         </is>
       </c>
-      <c r="D16" s="5" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>LIT</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Lietuvių</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="0">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>Norwegian</t>
         </is>
       </c>
-      <c r="C17" s="5" t="inlineStr">
+      <c r="C17" s="0" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="D17" s="5" t="inlineStr">
+      <c r="D17" s="0" t="inlineStr">
         <is>
           <t>NOR</t>
         </is>
       </c>
-      <c r="E17" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Norsk</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="0">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" s="0" t="inlineStr">
         <is>
           <t>Persian</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" s="0" t="inlineStr">
         <is>
           <t>FA</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
+      <c r="D18" s="0" t="inlineStr">
         <is>
           <t>PER</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>فارسی</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Fārsiy</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="0">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>Polish</t>
         </is>
       </c>
-      <c r="C19" s="5" t="inlineStr">
+      <c r="C19" s="0" t="inlineStr">
         <is>
           <t>PL</t>
         </is>
       </c>
-      <c r="D19" s="5" t="inlineStr">
+      <c r="D19" s="0" t="inlineStr">
         <is>
           <t>POL</t>
         </is>
       </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Polski</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="20">
-      <c r="A20" s="4">
+      <c r="A20" s="0">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B20" s="0" t="inlineStr">
         <is>
           <t>Portuguese</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
+      <c r="C20" s="0" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="D20" s="5" t="inlineStr">
+      <c r="D20" s="0" t="inlineStr">
         <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>BR</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Português</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="21">
-      <c r="A21" s="4">
+      <c r="A21" s="0">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B21" s="0" t="inlineStr">
         <is>
           <t>Slovenian</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
+      <c r="C21" s="0" t="inlineStr">
         <is>
           <t>SL</t>
         </is>
       </c>
-      <c r="D21" s="5" t="inlineStr">
+      <c r="D21" s="0" t="inlineStr">
         <is>
           <t>SLV</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>Slovenščina</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="22">
-      <c r="A22" s="4">
+      <c r="A22" s="0">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B22" s="0" t="inlineStr">
         <is>
           <t>Spanish</t>
         </is>
       </c>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="C22" s="0" t="inlineStr">
         <is>
           <t>ES</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
+      <c r="D22" s="0" t="inlineStr">
         <is>
           <t>SPA</t>
         </is>
       </c>
-      <c r="E22" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Español</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="23">
-      <c r="A23" s="4">
+      <c r="A23" s="0">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="B23" s="0" t="inlineStr">
         <is>
           <t>Swedish</t>
         </is>
       </c>
-      <c r="C23" s="5" t="inlineStr">
+      <c r="C23" s="0" t="inlineStr">
         <is>
           <t>SV</t>
         </is>
       </c>
-      <c r="D23" s="5" t="inlineStr">
+      <c r="D23" s="0" t="inlineStr">
         <is>
           <t>SWE</t>
         </is>
       </c>
-      <c r="E23" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F23" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>Svenska</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="24">
-      <c r="A24" s="4">
+      <c r="A24" s="0">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="0" t="inlineStr">
         <is>
           <t>Turkish</t>
         </is>
       </c>
-      <c r="C24" s="5" t="inlineStr">
+      <c r="C24" s="0" t="inlineStr">
         <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="D24" s="5" t="inlineStr">
+      <c r="D24" s="0" t="inlineStr">
         <is>
           <t>TUR</t>
         </is>
       </c>
-      <c r="E24" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F24" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>Türkçe</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="25">
-      <c r="A25" s="4">
+      <c r="A25" s="0">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="0" t="inlineStr">
         <is>
           <t>Urdu</t>
         </is>
       </c>
-      <c r="C25" s="5" t="inlineStr">
+      <c r="C25" s="0" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
-      <c r="D25" s="5" t="inlineStr">
+      <c r="D25" s="0" t="inlineStr">
         <is>
           <t>URD</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F25" s="5" t="inlineStr">
-        <is>
-          <t/>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>اُردُو</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>Urduw</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="26">
-      <c r="A26" s="4">
+      <c r="A26" s="0">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="inlineStr">
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>Chinese (Traditional)</t>
         </is>
       </c>
-      <c r="C26" s="5" t="inlineStr">
+      <c r="C26" s="0" t="inlineStr">
         <is>
           <t>ZH</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
+      <c r="D26" s="0" t="inlineStr">
         <is>
           <t>CHI</t>
         </is>
       </c>
-      <c r="E26" s="5" t="inlineStr">
+      <c r="E26" s="0" t="inlineStr">
         <is>
           <t>HANT</t>
         </is>
       </c>
-      <c r="F26" s="5" t="inlineStr">
-        <is>
-          <t/>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Swahili</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>SW</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>SWA</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>كِسوَحِيلِ</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>Kiswahili</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Serbian</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>SRP</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>Српски</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>Srpski</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Malay</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>MSA</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>بهاس ملايو</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>bahasa Melayu</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Bengali</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>BN</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>BEN</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>French</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>FRE</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="H31" s="0" t="inlineStr">
+        <is>
+          <t>Français</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Hindi</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>HI</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>HIN</t>
+        </is>
+      </c>
+      <c r="G32" s="0" t="inlineStr">
+        <is>
+          <t>हिन्दी</t>
+        </is>
+      </c>
+      <c r="H32" s="0" t="inlineStr">
+        <is>
+          <t>Hindī</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Punjabi</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
+      </c>
+      <c r="G33" s="0" t="inlineStr">
+        <is>
+          <t>ਪੰਜਾਬੀ</t>
+        </is>
+      </c>
+      <c r="H33" s="0" t="inlineStr">
+        <is>
+          <t>Pãjābī</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Russian</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>RU</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+      <c r="G34" s="0" t="inlineStr">
+        <is>
+          <t>Русский язык</t>
+        </is>
+      </c>
+      <c r="H34" s="0" t="inlineStr">
+        <is>
+          <t>Russkiĭ âzyk</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Chichewa</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>NYA</t>
+        </is>
+      </c>
+      <c r="H35" s="0" t="inlineStr">
+        <is>
+          <t>Chichewa</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Hebrew</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>HE</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>HEB</t>
+        </is>
+      </c>
+      <c r="G36" s="0" t="inlineStr">
+        <is>
+          <t>עברית</t>
+        </is>
+      </c>
+      <c r="H36" s="0" t="inlineStr">
+        <is>
+          <t>Ivrit</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Italian</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>ITA</t>
+        </is>
+      </c>
+      <c r="H37" s="0" t="inlineStr">
+        <is>
+          <t>Italiano</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Thai</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>TH</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+      <c r="G38" s="0" t="inlineStr">
+        <is>
+          <t>ภาษาไทย</t>
+        </is>
+      </c>
+      <c r="H38" s="0" t="inlineStr">
+        <is>
+          <t>Phasa Thai</t>
         </is>
       </c>
     </row>

--- a/rcads/data/xls/90_Languages.xlsx
+++ b/rcads/data/xls/90_Languages.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_90_Languages"/>
   </sheets>
   <definedNames>
-    <definedName name="_90_Languages">'_90_Languages'!$A$1:$H$38</definedName>
+    <definedName name="_90_Languages">'_90_Languages'!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1413,6 +1413,31 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Mongolian</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>MON</t>
+        </is>
+      </c>
+      <c r="H39" s="0" t="inlineStr">
+        <is>
+          <t>Mongol xel</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/rcads/data/xls/90_Languages.xlsx
+++ b/rcads/data/xls/90_Languages.xlsx
@@ -354,7 +354,7 @@
     <row outlineLevel="0" r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>LangaugeID</t>
+          <t>LanguageID</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">

--- a/rcads/data/xls/90_Languages.xlsx
+++ b/rcads/data/xls/90_Languages.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="_90_Languages"/>
   </sheets>
   <definedNames>
-    <definedName name="_90_Languages">'_90_Languages'!$A$1:$H$39</definedName>
+    <definedName name="_90_Languages">'_90_Languages'!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -343,7 +343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -1438,6 +1438,66 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Vietnamese</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>VI</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>VIE</t>
+        </is>
+      </c>
+      <c r="G40" s="0" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+      <c r="H40" s="0" t="inlineStr">
+        <is>
+          <t>Tiếng Việt</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Marathi</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>MR</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="G41" s="0" t="inlineStr">
+        <is>
+          <t>मराठी</t>
+        </is>
+      </c>
+      <c r="H41" s="0" t="inlineStr">
+        <is>
+          <t>Marāṭhī</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
